--- a/work/workout.xlsx
+++ b/work/workout.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sandbox\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\dev\code\work\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E86F28D6-7A58-410C-A09A-6F3C49C77752}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E69D3C75-7B34-40CC-9F84-C41473E13BA6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{723923E2-2CA0-49AA-84BB-AEB574CEA5B6}"/>
   </bookViews>
@@ -39,38 +39,20 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="29">
   <si>
     <t>Exercise</t>
   </si>
   <si>
-    <t>Sets x Reps</t>
-  </si>
-  <si>
     <t>Day 1</t>
   </si>
   <si>
     <t>Incline bench press</t>
   </si>
   <si>
-    <t>5 x 5-8</t>
-  </si>
-  <si>
     <t>Seated DB shoulder press</t>
   </si>
   <si>
-    <t>4 x 6-12</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Decline DB tricep extension </t>
-  </si>
-  <si>
-    <t>3 x 10-20</t>
-  </si>
-  <si>
-    <t>Seated lateral raises</t>
-  </si>
-  <si>
     <t>Day 2</t>
   </si>
   <si>
@@ -107,37 +89,43 @@
     <t>Notes</t>
   </si>
   <si>
-    <t>pull up</t>
-  </si>
-  <si>
-    <t>push down</t>
-  </si>
-  <si>
     <t>up to chest</t>
   </si>
   <si>
-    <t xml:space="preserve"> </t>
-  </si>
-  <si>
-    <t>roll down leg, push butt out, back straight</t>
-  </si>
-  <si>
-    <t>legs apart, squat, back straight</t>
-  </si>
-  <si>
     <t>w/knee on bench - straight up</t>
   </si>
   <si>
     <t>lat pull down</t>
   </si>
   <si>
-    <t>notch 2/6, find machine</t>
-  </si>
-  <si>
-    <t>arghhh</t>
-  </si>
-  <si>
-    <t>wings</t>
+    <t>machine</t>
+  </si>
+  <si>
+    <t>find machine ???</t>
+  </si>
+  <si>
+    <t>Pecs</t>
+  </si>
+  <si>
+    <t>pec machine</t>
+  </si>
+  <si>
+    <t>wings - machine ??</t>
+  </si>
+  <si>
+    <t>pull up machine</t>
+  </si>
+  <si>
+    <t>push down machine</t>
+  </si>
+  <si>
+    <t>Machine</t>
+  </si>
+  <si>
+    <t>x</t>
+  </si>
+  <si>
+    <t>Seated DB lateral raises</t>
   </si>
 </sst>
 </file>
@@ -182,7 +170,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -205,22 +193,11 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -228,9 +205,14 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -549,125 +531,119 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:E16"/>
+  <dimension ref="A1:E15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+      <selection activeCell="E25" sqref="E25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="1"/>
-    <col min="2" max="2" width="31.7109375" customWidth="1"/>
-    <col min="3" max="3" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="6.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.140625" style="7"/>
+    <col min="3" max="3" width="31.7109375" customWidth="1"/>
     <col min="4" max="4" width="4.42578125" customWidth="1"/>
-    <col min="5" max="5" width="51.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="36.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2"/>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="2" t="s">
-        <v>1</v>
-      </c>
       <c r="D1" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="E1" s="6" t="s">
-        <v>21</v>
+        <v>14</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2" s="4" t="s">
         <v>2</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>4</v>
       </c>
       <c r="D2" s="4">
         <v>30</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="2"/>
-      <c r="B3" s="4" t="s">
-        <v>5</v>
-      </c>
+      <c r="B3" s="6"/>
       <c r="C3" s="4" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D3" s="4">
         <v>15</v>
       </c>
-      <c r="E3" s="4"/>
+      <c r="E3" s="4" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="2"/>
-      <c r="B4" s="4" t="s">
-        <v>7</v>
+      <c r="B4" s="6" t="s">
+        <v>27</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>8</v>
+        <v>21</v>
       </c>
       <c r="D4" s="4">
-        <v>5</v>
+        <v>40</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>31</v>
+        <v>22</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="2"/>
-      <c r="B5" s="4" t="s">
-        <v>9</v>
-      </c>
+      <c r="B5" s="6"/>
       <c r="C5" s="4" t="s">
-        <v>8</v>
+        <v>28</v>
       </c>
       <c r="D5" s="4">
         <v>5</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>32</v>
+        <v>23</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="2"/>
-      <c r="B6" s="4"/>
+      <c r="B6" s="6"/>
       <c r="C6" s="4"/>
       <c r="D6" s="4"/>
       <c r="E6" s="4"/>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B7" s="4" t="s">
-        <v>11</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="B7" s="6"/>
       <c r="C7" s="4" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D7" s="4">
         <v>60</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="2"/>
-      <c r="B8" s="4" t="s">
-        <v>12</v>
-      </c>
+      <c r="B8" s="6"/>
       <c r="C8" s="4" t="s">
         <v>6</v>
       </c>
@@ -675,28 +651,28 @@
         <v>30</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="2"/>
-      <c r="B9" s="4" t="s">
-        <v>13</v>
+      <c r="B9" s="6" t="s">
+        <v>27</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D9" s="4">
         <v>50</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="2"/>
-      <c r="B10" s="4" t="s">
-        <v>14</v>
+      <c r="B10" s="6" t="s">
+        <v>27</v>
       </c>
       <c r="C10" s="4" t="s">
         <v>8</v>
@@ -705,83 +681,76 @@
         <v>30</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="2"/>
-      <c r="B11" s="4"/>
+      <c r="B11" s="6"/>
       <c r="C11" s="4"/>
       <c r="D11" s="4"/>
       <c r="E11" s="4"/>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="B12" s="4" t="s">
-        <v>16</v>
+        <v>9</v>
+      </c>
+      <c r="B12" s="6" t="s">
+        <v>27</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="D12" s="4">
         <v>60</v>
       </c>
-      <c r="E12" s="4"/>
+      <c r="E12" s="4" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="2"/>
-      <c r="B13" s="4" t="s">
-        <v>17</v>
-      </c>
+      <c r="B13" s="6"/>
       <c r="C13" s="4" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="D13" s="4">
         <v>20</v>
       </c>
       <c r="E13" s="4" t="s">
-        <v>28</v>
+        <v>17</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="2"/>
-      <c r="B14" s="4" t="s">
-        <v>18</v>
+      <c r="B14" s="6" t="s">
+        <v>27</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="D14" s="4">
         <v>35</v>
       </c>
       <c r="E14" s="4" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="2"/>
-      <c r="B15" s="4" t="s">
-        <v>19</v>
-      </c>
+      <c r="B15" s="6"/>
       <c r="C15" s="4" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="D15" s="4">
         <v>10</v>
       </c>
       <c r="E15" s="4" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="E16" s="5" t="s">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup scale="77" orientation="portrait" r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/work/workout.xlsx
+++ b/work/workout.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\dev\code\work\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E69D3C75-7B34-40CC-9F84-C41473E13BA6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44B91CAC-D394-476A-A602-E8C1416E58E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{723923E2-2CA0-49AA-84BB-AEB574CEA5B6}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="30">
   <si>
     <t>Exercise</t>
   </si>
@@ -59,9 +59,6 @@
     <t>Romanian deadlift</t>
   </si>
   <si>
-    <t>Back squat</t>
-  </si>
-  <si>
     <t>Seated leg curls</t>
   </si>
   <si>
@@ -92,27 +89,18 @@
     <t>up to chest</t>
   </si>
   <si>
-    <t>w/knee on bench - straight up</t>
-  </si>
-  <si>
     <t>lat pull down</t>
   </si>
   <si>
     <t>machine</t>
   </si>
   <si>
-    <t>find machine ???</t>
-  </si>
-  <si>
     <t>Pecs</t>
   </si>
   <si>
     <t>pec machine</t>
   </si>
   <si>
-    <t>wings - machine ??</t>
-  </si>
-  <si>
     <t>pull up machine</t>
   </si>
   <si>
@@ -126,6 +114,21 @@
   </si>
   <si>
     <t>Seated DB lateral raises</t>
+  </si>
+  <si>
+    <t>wings lift up</t>
+  </si>
+  <si>
+    <t>smith machine?</t>
+  </si>
+  <si>
+    <t>Leg press</t>
+  </si>
+  <si>
+    <t>knee on bench - straight up</t>
+  </si>
+  <si>
+    <t>find machine</t>
   </si>
 </sst>
 </file>
@@ -197,13 +200,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -212,6 +212,12 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -534,223 +540,221 @@
   <dimension ref="A1:E15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E25" sqref="E25"/>
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="6.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.140625" style="7"/>
+    <col min="2" max="2" width="9.140625" style="6"/>
     <col min="3" max="3" width="31.7109375" customWidth="1"/>
-    <col min="4" max="4" width="4.42578125" customWidth="1"/>
-    <col min="5" max="5" width="36.140625" customWidth="1"/>
+    <col min="4" max="4" width="7.5703125" style="8" customWidth="1"/>
+    <col min="5" max="5" width="36.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2"/>
-      <c r="B1" s="5" t="s">
-        <v>26</v>
+      <c r="B1" s="4" t="s">
+        <v>22</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E1" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="E1" s="5" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="C2" s="4" t="s">
+      <c r="B2" s="5"/>
+      <c r="C2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="4">
-        <v>30</v>
-      </c>
-      <c r="E2" s="4" t="s">
+      <c r="D2" s="7">
+        <v>40</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="2"/>
+      <c r="B3" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3" s="7">
+        <v>15</v>
+      </c>
+      <c r="E3" s="3"/>
+    </row>
+    <row r="4" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="2"/>
+      <c r="B4" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D4" s="7">
+        <v>40</v>
+      </c>
+      <c r="E4" s="3" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="2"/>
-      <c r="B3" s="6"/>
-      <c r="C3" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="D3" s="4">
-        <v>15</v>
-      </c>
-      <c r="E3" s="4" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="2"/>
-      <c r="B4" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="D4" s="4">
-        <v>40</v>
-      </c>
-      <c r="E4" s="4" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="2"/>
-      <c r="B5" s="6"/>
-      <c r="C5" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="D5" s="4">
+      <c r="B5" s="5"/>
+      <c r="C5" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D5" s="7">
         <v>5</v>
       </c>
-      <c r="E5" s="4" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E5" s="3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="2"/>
-      <c r="B6" s="6"/>
-      <c r="C6" s="4"/>
-      <c r="D6" s="4"/>
-      <c r="E6" s="4"/>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B6" s="5"/>
+      <c r="C6" s="3"/>
+      <c r="D6" s="7"/>
+      <c r="E6" s="3"/>
+    </row>
+    <row r="7" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B7" s="6"/>
-      <c r="C7" s="4" t="s">
+      <c r="B7" s="5"/>
+      <c r="C7" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="D7" s="4">
+      <c r="D7" s="7">
         <v>60</v>
       </c>
-      <c r="E7" s="4" t="s">
+      <c r="E7" s="3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="2"/>
+      <c r="B8" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="D8" s="7">
+        <v>30</v>
+      </c>
+      <c r="E8" s="3"/>
+    </row>
+    <row r="9" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="2"/>
+      <c r="B9" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D9" s="7">
+        <v>50</v>
+      </c>
+      <c r="E9" s="3" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="2"/>
-      <c r="B8" s="6"/>
-      <c r="C8" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="D8" s="4">
+    <row r="10" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="2"/>
+      <c r="B10" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D10" s="7">
         <v>30</v>
       </c>
-      <c r="E8" s="4" t="s">
+      <c r="E10" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="2"/>
+      <c r="B11" s="5"/>
+      <c r="C11" s="3"/>
+      <c r="D11" s="7"/>
+      <c r="E11" s="3"/>
+    </row>
+    <row r="12" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D12" s="7">
+        <v>60</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="2"/>
+      <c r="B13" s="5"/>
+      <c r="C13" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D13" s="7">
         <v>20</v>
       </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="2"/>
-      <c r="B9" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="C9" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="D9" s="4">
-        <v>50</v>
-      </c>
-      <c r="E9" s="4" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" s="2"/>
-      <c r="B10" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="C10" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="D10" s="4">
-        <v>30</v>
-      </c>
-      <c r="E10" s="4" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" s="2"/>
-      <c r="B11" s="6"/>
-      <c r="C11" s="4"/>
-      <c r="D11" s="4"/>
-      <c r="E11" s="4"/>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B12" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="C12" s="4" t="s">
+      <c r="E13" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="2"/>
+      <c r="B14" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D14" s="7">
+        <v>35</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="2"/>
+      <c r="B15" s="5"/>
+      <c r="C15" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D15" s="7">
         <v>10</v>
       </c>
-      <c r="D12" s="4">
-        <v>60</v>
-      </c>
-      <c r="E12" s="4" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" s="2"/>
-      <c r="B13" s="6"/>
-      <c r="C13" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="D13" s="4">
-        <v>20</v>
-      </c>
-      <c r="E13" s="4" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14" s="2"/>
-      <c r="B14" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="C14" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="D14" s="4">
-        <v>35</v>
-      </c>
-      <c r="E14" s="4" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15" s="2"/>
-      <c r="B15" s="6"/>
-      <c r="C15" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="D15" s="4">
-        <v>10</v>
-      </c>
-      <c r="E15" s="4" t="s">
-        <v>16</v>
+      <c r="E15" s="3" t="s">
+        <v>15</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageSetup scale="98" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/work/workout.xlsx
+++ b/work/workout.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\dev\code\work\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44B91CAC-D394-476A-A602-E8C1416E58E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7ACEC024-7287-4E61-A158-0E3F6FE64FED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{723923E2-2CA0-49AA-84BB-AEB574CEA5B6}"/>
   </bookViews>
@@ -119,9 +119,6 @@
     <t>wings lift up</t>
   </si>
   <si>
-    <t>smith machine?</t>
-  </si>
-  <si>
     <t>Leg press</t>
   </si>
   <si>
@@ -129,6 +126,9 @@
   </si>
   <si>
     <t>find machine</t>
+  </si>
+  <si>
+    <t>bar rolls on leg</t>
   </si>
 </sst>
 </file>
@@ -540,7 +540,7 @@
   <dimension ref="A1:E15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+      <selection activeCell="N19" sqref="N19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -579,7 +579,7 @@
         <v>40</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -642,7 +642,7 @@
         <v>60</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -651,7 +651,7 @@
         <v>23</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D8" s="7">
         <v>30</v>
@@ -722,7 +722,7 @@
         <v>20</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">

--- a/work/workout.xlsx
+++ b/work/workout.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\dev\code\work\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7ACEC024-7287-4E61-A158-0E3F6FE64FED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8A176E5-C84C-4AA5-8214-A187906BC235}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{723923E2-2CA0-49AA-84BB-AEB574CEA5B6}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="29">
   <si>
     <t>Exercise</t>
   </si>
@@ -47,18 +47,12 @@
     <t>Day 1</t>
   </si>
   <si>
-    <t>Incline bench press</t>
-  </si>
-  <si>
     <t>Seated DB shoulder press</t>
   </si>
   <si>
     <t>Day 2</t>
   </si>
   <si>
-    <t>Romanian deadlift</t>
-  </si>
-  <si>
     <t>Seated leg curls</t>
   </si>
   <si>
@@ -125,10 +119,13 @@
     <t>knee on bench - straight up</t>
   </si>
   <si>
-    <t>find machine</t>
-  </si>
-  <si>
-    <t>bar rolls on leg</t>
+    <t>Incline chest press</t>
+  </si>
+  <si>
+    <t>freebie</t>
+  </si>
+  <si>
+    <t>fix 3/30</t>
   </si>
 </sst>
 </file>
@@ -539,9 +536,7 @@
   </sheetPr>
   <dimension ref="A1:E15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N19" sqref="N19"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -555,40 +550,40 @@
     <row r="1" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2"/>
       <c r="B1" s="4" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>0</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="5"/>
+      <c r="B2" s="5" t="s">
+        <v>21</v>
+      </c>
       <c r="C2" s="3" t="s">
-        <v>2</v>
+        <v>26</v>
       </c>
       <c r="D2" s="7">
         <v>40</v>
       </c>
-      <c r="E2" s="3" t="s">
-        <v>28</v>
-      </c>
+      <c r="E2" s="3"/>
     </row>
     <row r="3" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2"/>
       <c r="B3" s="5" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D3" s="7">
         <v>15</v>
@@ -598,29 +593,29 @@
     <row r="4" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="2"/>
       <c r="B4" s="5" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D4" s="7">
         <v>40</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="2"/>
       <c r="B5" s="5"/>
       <c r="C5" s="3" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D5" s="7">
         <v>5</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -632,60 +627,58 @@
     </row>
     <row r="7" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B7" s="5"/>
       <c r="C7" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="D7" s="7">
-        <v>60</v>
-      </c>
-      <c r="E7" s="3" t="s">
-        <v>29</v>
-      </c>
+        <v>27</v>
+      </c>
+      <c r="D7" s="7"/>
+      <c r="E7" s="3"/>
     </row>
     <row r="8" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="2"/>
       <c r="B8" s="5" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D8" s="7">
         <v>30</v>
       </c>
-      <c r="E8" s="3"/>
+      <c r="E8" s="3" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="9" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="2"/>
       <c r="B9" s="5" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D9" s="7">
         <v>50</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="2"/>
       <c r="B10" s="5" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D10" s="7">
         <v>30</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -697,60 +690,60 @@
     </row>
     <row r="12" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D12" s="7">
         <v>60</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="2"/>
       <c r="B13" s="5"/>
       <c r="C13" s="3" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D13" s="7">
         <v>20</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="2"/>
       <c r="B14" s="5" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D14" s="7">
         <v>35</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="2"/>
       <c r="B15" s="5"/>
       <c r="C15" s="3" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D15" s="7">
         <v>10</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
   </sheetData>

--- a/work/workout.xlsx
+++ b/work/workout.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\dev\code\work\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8A176E5-C84C-4AA5-8214-A187906BC235}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1E82BEA-EFAA-4E5C-91AD-B375A84C4633}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{723923E2-2CA0-49AA-84BB-AEB574CEA5B6}"/>
   </bookViews>
@@ -39,29 +39,17 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="27">
   <si>
     <t>Exercise</t>
   </si>
   <si>
-    <t>Day 1</t>
-  </si>
-  <si>
-    <t>Seated DB shoulder press</t>
-  </si>
-  <si>
-    <t>Day 2</t>
-  </si>
-  <si>
     <t>Seated leg curls</t>
   </si>
   <si>
     <t>Leg extensions</t>
   </si>
   <si>
-    <t>Day 3</t>
-  </si>
-  <si>
     <t>Neutral grip pulldowns</t>
   </si>
   <si>
@@ -89,12 +77,6 @@
     <t>machine</t>
   </si>
   <si>
-    <t>Pecs</t>
-  </si>
-  <si>
-    <t>pec machine</t>
-  </si>
-  <si>
     <t>pull up machine</t>
   </si>
   <si>
@@ -107,12 +89,6 @@
     <t>x</t>
   </si>
   <si>
-    <t>Seated DB lateral raises</t>
-  </si>
-  <si>
-    <t>wings lift up</t>
-  </si>
-  <si>
     <t>Leg press</t>
   </si>
   <si>
@@ -126,6 +102,24 @@
   </si>
   <si>
     <t>fix 3/30</t>
+  </si>
+  <si>
+    <t>Shoulder press</t>
+  </si>
+  <si>
+    <t>Tricep press</t>
+  </si>
+  <si>
+    <t>Lateral raises</t>
+  </si>
+  <si>
+    <t>Mon</t>
+  </si>
+  <si>
+    <t>Wed</t>
+  </si>
+  <si>
+    <t>Fri</t>
   </si>
 </sst>
 </file>
@@ -536,7 +530,9 @@
   </sheetPr>
   <dimension ref="A1:E15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A13" sqref="A13"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -550,27 +546,27 @@
     <row r="1" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2"/>
       <c r="B1" s="4" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>0</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>1</v>
+        <v>24</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="D2" s="7">
         <v>40</v>
@@ -580,10 +576,10 @@
     <row r="3" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2"/>
       <c r="B3" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C3" s="3" t="s">
         <v>21</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>2</v>
       </c>
       <c r="D3" s="7">
         <v>15</v>
@@ -593,30 +589,28 @@
     <row r="4" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="2"/>
       <c r="B4" s="5" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="D4" s="7">
-        <v>40</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>17</v>
-      </c>
+        <v>70</v>
+      </c>
+      <c r="E4" s="3"/>
     </row>
     <row r="5" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="2"/>
-      <c r="B5" s="5"/>
+      <c r="B5" s="5" t="s">
+        <v>15</v>
+      </c>
       <c r="C5" s="3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D5" s="7">
-        <v>5</v>
-      </c>
-      <c r="E5" s="3" t="s">
-        <v>23</v>
-      </c>
+        <v>10</v>
+      </c>
+      <c r="E5" s="3"/>
     </row>
     <row r="6" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="2"/>
@@ -627,11 +621,11 @@
     </row>
     <row r="7" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>3</v>
+        <v>25</v>
       </c>
       <c r="B7" s="5"/>
       <c r="C7" s="3" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="D7" s="7"/>
       <c r="E7" s="3"/>
@@ -639,46 +633,46 @@
     <row r="8" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="2"/>
       <c r="B8" s="5" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="D8" s="7">
         <v>30</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="2"/>
       <c r="B9" s="5" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D9" s="7">
         <v>50</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="2"/>
       <c r="B10" s="5" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D10" s="7">
         <v>30</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -690,60 +684,60 @@
     </row>
     <row r="12" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
-        <v>6</v>
+        <v>26</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="D12" s="7">
         <v>60</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="2"/>
       <c r="B13" s="5"/>
       <c r="C13" s="3" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="D13" s="7">
         <v>20</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="2"/>
       <c r="B14" s="5" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="D14" s="7">
         <v>35</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="2"/>
       <c r="B15" s="5"/>
       <c r="C15" s="3" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="D15" s="7">
         <v>10</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
   </sheetData>

--- a/work/workout.xlsx
+++ b/work/workout.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\dev\code\work\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1E82BEA-EFAA-4E5C-91AD-B375A84C4633}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CEB3085B-326C-4142-A72C-F2745BBF191D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{723923E2-2CA0-49AA-84BB-AEB574CEA5B6}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="20">
   <si>
     <t>Exercise</t>
   </si>
@@ -50,39 +50,12 @@
     <t>Leg extensions</t>
   </si>
   <si>
-    <t>Neutral grip pulldowns</t>
-  </si>
-  <si>
-    <t>1-arm DB rows</t>
-  </si>
-  <si>
-    <t>Inverted bodyweight rows</t>
-  </si>
-  <si>
-    <t>DB hammer curls</t>
-  </si>
-  <si>
     <t>Wt</t>
   </si>
   <si>
     <t>Notes</t>
   </si>
   <si>
-    <t>up to chest</t>
-  </si>
-  <si>
-    <t>lat pull down</t>
-  </si>
-  <si>
-    <t>machine</t>
-  </si>
-  <si>
-    <t>pull up machine</t>
-  </si>
-  <si>
-    <t>push down machine</t>
-  </si>
-  <si>
     <t>Machine</t>
   </si>
   <si>
@@ -92,18 +65,9 @@
     <t>Leg press</t>
   </si>
   <si>
-    <t>knee on bench - straight up</t>
-  </si>
-  <si>
     <t>Incline chest press</t>
   </si>
   <si>
-    <t>freebie</t>
-  </si>
-  <si>
-    <t>fix 3/30</t>
-  </si>
-  <si>
     <t>Shoulder press</t>
   </si>
   <si>
@@ -120,6 +84,21 @@
   </si>
   <si>
     <t>Fri</t>
+  </si>
+  <si>
+    <t>Dual pulley row</t>
+  </si>
+  <si>
+    <t>Inverted bodyweight rows (lats)</t>
+  </si>
+  <si>
+    <t>DB hammer curls (up to chest)</t>
+  </si>
+  <si>
+    <t>1-arm DB rows (knee on bench straight up)</t>
+  </si>
+  <si>
+    <t>biceps</t>
   </si>
 </sst>
 </file>
@@ -531,42 +510,42 @@
   <dimension ref="A1:E15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="6.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9.140625" style="6"/>
-    <col min="3" max="3" width="31.7109375" customWidth="1"/>
+    <col min="3" max="3" width="49.140625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="7.5703125" style="8" customWidth="1"/>
-    <col min="5" max="5" width="36.42578125" customWidth="1"/>
+    <col min="5" max="5" width="25.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2"/>
       <c r="B1" s="4" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>0</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="D2" s="7">
         <v>40</v>
@@ -576,10 +555,10 @@
     <row r="3" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2"/>
       <c r="B3" s="5" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="D3" s="7">
         <v>15</v>
@@ -589,10 +568,10 @@
     <row r="4" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="2"/>
       <c r="B4" s="5" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="D4" s="7">
         <v>70</v>
@@ -602,10 +581,10 @@
     <row r="5" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="2"/>
       <c r="B5" s="5" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>23</v>
+        <v>11</v>
       </c>
       <c r="D5" s="7">
         <v>10</v>
@@ -621,34 +600,36 @@
     </row>
     <row r="7" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="B7" s="5"/>
+        <v>13</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>6</v>
+      </c>
       <c r="C7" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="D7" s="7"/>
+      <c r="D7" s="7">
+        <v>65</v>
+      </c>
       <c r="E7" s="3"/>
     </row>
     <row r="8" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="2"/>
       <c r="B8" s="5" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="D8" s="7">
         <v>30</v>
       </c>
-      <c r="E8" s="3" t="s">
-        <v>20</v>
-      </c>
+      <c r="E8" s="3"/>
     </row>
     <row r="9" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="2"/>
       <c r="B9" s="5" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="C9" s="3" t="s">
         <v>1</v>
@@ -656,14 +637,12 @@
       <c r="D9" s="7">
         <v>50</v>
       </c>
-      <c r="E9" s="3" t="s">
-        <v>12</v>
-      </c>
+      <c r="E9" s="3"/>
     </row>
     <row r="10" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="2"/>
       <c r="B10" s="5" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="C10" s="3" t="s">
         <v>2</v>
@@ -671,9 +650,7 @@
       <c r="D10" s="7">
         <v>30</v>
       </c>
-      <c r="E10" s="3" t="s">
-        <v>13</v>
-      </c>
+      <c r="E10" s="3"/>
     </row>
     <row r="11" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="2"/>
@@ -684,64 +661,56 @@
     </row>
     <row r="12" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="B12" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C12" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="C12" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="D12" s="7">
-        <v>60</v>
-      </c>
-      <c r="E12" s="3" t="s">
-        <v>11</v>
-      </c>
+        <v>80</v>
+      </c>
+      <c r="E12" s="3"/>
     </row>
     <row r="13" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="2"/>
       <c r="B13" s="5"/>
       <c r="C13" s="3" t="s">
-        <v>4</v>
+        <v>18</v>
       </c>
       <c r="D13" s="7">
-        <v>20</v>
-      </c>
-      <c r="E13" s="3" t="s">
-        <v>17</v>
-      </c>
+        <v>30</v>
+      </c>
+      <c r="E13" s="3"/>
     </row>
     <row r="14" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="2"/>
       <c r="B14" s="5" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="D14" s="7">
         <v>35</v>
       </c>
-      <c r="E14" s="3" t="s">
-        <v>10</v>
-      </c>
+      <c r="E14" s="3"/>
     </row>
     <row r="15" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="2"/>
       <c r="B15" s="5"/>
       <c r="C15" s="3" t="s">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="D15" s="7">
         <v>10</v>
       </c>
-      <c r="E15" s="3" t="s">
-        <v>9</v>
-      </c>
+      <c r="E15" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup scale="98" orientation="portrait" r:id="rId1"/>
+  <pageSetup scale="92" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/work/workout.xlsx
+++ b/work/workout.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\dev\code\work\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CEB3085B-326C-4142-A72C-F2745BBF191D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85428824-B7C5-4F2C-8DB7-9191C4ABDDDE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{723923E2-2CA0-49AA-84BB-AEB574CEA5B6}"/>
   </bookViews>
@@ -65,9 +65,6 @@
     <t>Leg press</t>
   </si>
   <si>
-    <t>Incline chest press</t>
-  </si>
-  <si>
     <t>Shoulder press</t>
   </si>
   <si>
@@ -99,6 +96,9 @@
   </si>
   <si>
     <t>biceps</t>
+  </si>
+  <si>
+    <t>Chest press</t>
   </si>
 </sst>
 </file>
@@ -510,7 +510,7 @@
   <dimension ref="A1:E15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -539,13 +539,13 @@
     </row>
     <row r="2" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B2" s="5" t="s">
         <v>6</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="D2" s="7">
         <v>40</v>
@@ -558,10 +558,10 @@
         <v>6</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D3" s="7">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="E3" s="3"/>
     </row>
@@ -571,10 +571,10 @@
         <v>6</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D4" s="7">
-        <v>70</v>
+        <v>90</v>
       </c>
       <c r="E4" s="3"/>
     </row>
@@ -584,10 +584,10 @@
         <v>6</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D5" s="7">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="E5" s="3"/>
     </row>
@@ -600,13 +600,13 @@
     </row>
     <row r="7" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>6</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D7" s="7">
         <v>65</v>
@@ -661,13 +661,13 @@
     </row>
     <row r="12" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C12" s="3" t="s">
         <v>14</v>
-      </c>
-      <c r="B12" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>15</v>
       </c>
       <c r="D12" s="7">
         <v>80</v>
@@ -678,7 +678,7 @@
       <c r="A13" s="2"/>
       <c r="B13" s="5"/>
       <c r="C13" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D13" s="7">
         <v>30</v>
@@ -691,7 +691,7 @@
         <v>6</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D14" s="7">
         <v>35</v>
@@ -702,7 +702,7 @@
       <c r="A15" s="2"/>
       <c r="B15" s="5"/>
       <c r="C15" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D15" s="7">
         <v>10</v>

--- a/work/workout.xlsx
+++ b/work/workout.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\dev\code\work\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85428824-B7C5-4F2C-8DB7-9191C4ABDDDE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6BD85CA8-9825-430F-ABE5-E4A6B418E7E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{723923E2-2CA0-49AA-84BB-AEB574CEA5B6}"/>
   </bookViews>
@@ -39,14 +39,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="21">
   <si>
     <t>Exercise</t>
   </si>
   <si>
-    <t>Seated leg curls</t>
-  </si>
-  <si>
     <t>Leg extensions</t>
   </si>
   <si>
@@ -62,9 +59,6 @@
     <t>x</t>
   </si>
   <si>
-    <t>Leg press</t>
-  </si>
-  <si>
     <t>Shoulder press</t>
   </si>
   <si>
@@ -95,10 +89,19 @@
     <t>1-arm DB rows (knee on bench straight up)</t>
   </si>
   <si>
-    <t>biceps</t>
-  </si>
-  <si>
     <t>Chest press</t>
+  </si>
+  <si>
+    <t>Ab Crunch</t>
+  </si>
+  <si>
+    <t>Linear leg press</t>
+  </si>
+  <si>
+    <t>3x45 each side</t>
+  </si>
+  <si>
+    <t>Kneeling leg curls</t>
   </si>
 </sst>
 </file>
@@ -143,7 +146,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -166,11 +169,22 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -190,6 +204,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -510,7 +530,7 @@
   <dimension ref="A1:E15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -519,195 +539,194 @@
     <col min="2" max="2" width="9.140625" style="6"/>
     <col min="3" max="3" width="49.140625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="7.5703125" style="8" customWidth="1"/>
-    <col min="5" max="5" width="25.140625" customWidth="1"/>
+    <col min="5" max="5" width="25.140625" style="12" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2"/>
       <c r="B1" s="4" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>0</v>
       </c>
       <c r="D1" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="10" t="s">
         <v>3</v>
-      </c>
-      <c r="E1" s="4" t="s">
-        <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="D2" s="7">
         <v>40</v>
       </c>
-      <c r="E2" s="3"/>
+      <c r="E2" s="11"/>
     </row>
     <row r="3" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2"/>
       <c r="B3" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" s="3" t="s">
         <v>6</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="D3" s="7">
         <v>30</v>
       </c>
-      <c r="E3" s="3"/>
+      <c r="E3" s="11"/>
     </row>
     <row r="4" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="2"/>
       <c r="B4" s="5" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D4" s="7">
         <v>90</v>
       </c>
-      <c r="E4" s="3"/>
+      <c r="E4" s="11"/>
     </row>
     <row r="5" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="2"/>
       <c r="B5" s="5" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D5" s="7">
         <v>20</v>
       </c>
-      <c r="E5" s="3"/>
+      <c r="E5" s="11"/>
     </row>
     <row r="6" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="2"/>
       <c r="B6" s="5"/>
       <c r="C6" s="3"/>
       <c r="D6" s="7"/>
-      <c r="E6" s="3"/>
+      <c r="E6" s="11"/>
     </row>
     <row r="7" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D7" s="7">
-        <v>65</v>
-      </c>
-      <c r="E7" s="3"/>
+        <v>50</v>
+      </c>
+      <c r="E7" s="11"/>
     </row>
     <row r="8" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="2"/>
       <c r="B8" s="5" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="D8" s="7">
         <v>30</v>
       </c>
-      <c r="E8" s="3"/>
+      <c r="E8" s="11"/>
     </row>
     <row r="9" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="2"/>
       <c r="B9" s="5" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>1</v>
+        <v>18</v>
       </c>
       <c r="D9" s="7">
-        <v>50</v>
-      </c>
-      <c r="E9" s="3"/>
+        <v>270</v>
+      </c>
+      <c r="E9" s="11" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="10" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="2"/>
-      <c r="B10" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="D10" s="7">
-        <v>30</v>
-      </c>
-      <c r="E10" s="3"/>
+      <c r="C10" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="D10" s="8">
+        <v>0</v>
+      </c>
+      <c r="E10" s="11"/>
     </row>
     <row r="11" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="2"/>
       <c r="B11" s="5"/>
       <c r="C11" s="3"/>
       <c r="D11" s="7"/>
-      <c r="E11" s="3"/>
+      <c r="E11" s="11"/>
     </row>
     <row r="12" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D12" s="7">
         <v>80</v>
       </c>
-      <c r="E12" s="3"/>
+      <c r="E12" s="11"/>
     </row>
     <row r="13" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="2"/>
       <c r="B13" s="5"/>
       <c r="C13" s="3" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D13" s="7">
         <v>30</v>
       </c>
-      <c r="E13" s="3"/>
+      <c r="E13" s="11"/>
     </row>
     <row r="14" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="2"/>
       <c r="B14" s="5" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D14" s="7">
         <v>35</v>
       </c>
-      <c r="E14" s="3"/>
+      <c r="E14" s="11"/>
     </row>
     <row r="15" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="2"/>
       <c r="B15" s="5"/>
       <c r="C15" s="3" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D15" s="7">
         <v>10</v>
       </c>
-      <c r="E15" s="3"/>
+      <c r="E15" s="11"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/work/workout.xlsx
+++ b/work/workout.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\dev\code\work\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6BD85CA8-9825-430F-ABE5-E4A6B418E7E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37BFC7C4-EBE3-4093-9BD2-CBA6C36F68BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{723923E2-2CA0-49AA-84BB-AEB574CEA5B6}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="23">
   <si>
     <t>Exercise</t>
   </si>
@@ -102,6 +102,12 @@
   </si>
   <si>
     <t>Kneeling leg curls</t>
+  </si>
+  <si>
+    <t>db</t>
+  </si>
+  <si>
+    <t>db 20</t>
   </si>
 </sst>
 </file>
@@ -530,7 +536,7 @@
   <dimension ref="A1:E15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -596,7 +602,9 @@
       <c r="D4" s="7">
         <v>90</v>
       </c>
-      <c r="E4" s="11"/>
+      <c r="E4" s="11" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="5" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="2"/>
@@ -663,6 +671,9 @@
     </row>
     <row r="10" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="2"/>
+      <c r="B10" s="6" t="s">
+        <v>5</v>
+      </c>
       <c r="C10" s="9" t="s">
         <v>17</v>
       </c>
@@ -689,13 +700,15 @@
         <v>12</v>
       </c>
       <c r="D12" s="7">
-        <v>80</v>
+        <v>42.5</v>
       </c>
       <c r="E12" s="11"/>
     </row>
     <row r="13" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="2"/>
-      <c r="B13" s="5"/>
+      <c r="B13" s="5" t="s">
+        <v>21</v>
+      </c>
       <c r="C13" s="3" t="s">
         <v>15</v>
       </c>
@@ -719,12 +732,14 @@
     </row>
     <row r="15" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="2"/>
-      <c r="B15" s="5"/>
+      <c r="B15" s="5" t="s">
+        <v>21</v>
+      </c>
       <c r="C15" s="3" t="s">
         <v>14</v>
       </c>
       <c r="D15" s="7">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="E15" s="11"/>
     </row>

--- a/work/workout.xlsx
+++ b/work/workout.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\dev\code\work\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37BFC7C4-EBE3-4093-9BD2-CBA6C36F68BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3752BD9-4B04-4756-8084-B7B82F676621}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{723923E2-2CA0-49AA-84BB-AEB574CEA5B6}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
   <si>
     <t>Exercise</t>
   </si>
@@ -47,18 +47,9 @@
     <t>Leg extensions</t>
   </si>
   <si>
-    <t>Wt</t>
-  </si>
-  <si>
     <t>Notes</t>
   </si>
   <si>
-    <t>Machine</t>
-  </si>
-  <si>
-    <t>x</t>
-  </si>
-  <si>
     <t>Shoulder press</t>
   </si>
   <si>
@@ -104,10 +95,22 @@
     <t>Kneeling leg curls</t>
   </si>
   <si>
-    <t>db</t>
-  </si>
-  <si>
-    <t>db 20</t>
+    <t>Mach</t>
+  </si>
+  <si>
+    <t>DB</t>
+  </si>
+  <si>
+    <t>laying</t>
+  </si>
+  <si>
+    <t>seated</t>
+  </si>
+  <si>
+    <t>single db</t>
+  </si>
+  <si>
+    <t>wings</t>
   </si>
 </sst>
 </file>
@@ -190,18 +193,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -536,215 +533,203 @@
   <dimension ref="A1:E15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="6.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.140625" style="6"/>
-    <col min="3" max="3" width="49.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.5703125" style="8" customWidth="1"/>
-    <col min="5" max="5" width="25.140625" style="12" customWidth="1"/>
+    <col min="2" max="2" width="49.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="7.5703125" style="6" customWidth="1"/>
+    <col min="5" max="5" width="25.140625" style="10" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2"/>
-      <c r="B1" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="C1" s="2" t="s">
+      <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="C1" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="E1" s="8" t="s">
         <v>2</v>
-      </c>
-      <c r="E1" s="10" t="s">
-        <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B2" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="D2" s="7">
+        <v>6</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C2" s="5">
         <v>40</v>
       </c>
-      <c r="E2" s="11"/>
+      <c r="D2" s="5">
+        <v>30</v>
+      </c>
+      <c r="E2" s="9" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="3" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2"/>
-      <c r="B3" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="D3" s="7">
+      <c r="B3" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" s="5">
         <v>30</v>
       </c>
-      <c r="E3" s="11"/>
+      <c r="D3" s="5">
+        <v>15</v>
+      </c>
+      <c r="E3" s="9" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="4" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="2"/>
-      <c r="B4" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="D4" s="7">
+      <c r="B4" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4" s="5">
         <v>90</v>
       </c>
-      <c r="E4" s="11" t="s">
+      <c r="D4" s="5">
+        <v>20</v>
+      </c>
+      <c r="E4" s="9" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="2"/>
-      <c r="B5" s="5" t="s">
+      <c r="B5" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C5" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D5" s="7">
+      <c r="C5" s="5">
         <v>20</v>
       </c>
-      <c r="E5" s="11"/>
+      <c r="D5" s="5">
+        <v>15</v>
+      </c>
+      <c r="E5" s="9" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="6" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="2"/>
-      <c r="B6" s="5"/>
-      <c r="C6" s="3"/>
-      <c r="D6" s="7"/>
-      <c r="E6" s="11"/>
+      <c r="B6" s="3"/>
+      <c r="C6" s="5"/>
+      <c r="D6" s="5"/>
+      <c r="E6" s="9"/>
     </row>
     <row r="7" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B7" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="D7" s="7">
+        <v>7</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C7" s="5">
         <v>50</v>
       </c>
-      <c r="E7" s="11"/>
+      <c r="D7" s="5"/>
+      <c r="E7" s="9"/>
     </row>
     <row r="8" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="2"/>
-      <c r="B8" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="C8" s="3" t="s">
+      <c r="B8" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="D8" s="7">
+      <c r="C8" s="5">
         <v>30</v>
       </c>
-      <c r="E8" s="11"/>
+      <c r="D8" s="5"/>
+      <c r="E8" s="9"/>
     </row>
     <row r="9" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="2"/>
-      <c r="B9" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="D9" s="7">
+      <c r="B9" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C9" s="5">
         <v>270</v>
       </c>
-      <c r="E9" s="11" t="s">
-        <v>19</v>
+      <c r="D9" s="5"/>
+      <c r="E9" s="9" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="2"/>
-      <c r="B10" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="C10" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="D10" s="8">
+      <c r="B10" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C10" s="6">
         <v>0</v>
       </c>
-      <c r="E10" s="11"/>
+      <c r="E10" s="9"/>
     </row>
     <row r="11" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="2"/>
-      <c r="B11" s="5"/>
-      <c r="C11" s="3"/>
-      <c r="D11" s="7"/>
-      <c r="E11" s="11"/>
+      <c r="B11" s="3"/>
+      <c r="C11" s="5"/>
+      <c r="D11" s="5"/>
+      <c r="E11" s="9"/>
     </row>
     <row r="12" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B12" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="D12" s="7">
+        <v>8</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C12" s="5">
         <v>42.5</v>
       </c>
-      <c r="E12" s="11"/>
+      <c r="D12" s="5"/>
+      <c r="E12" s="9"/>
     </row>
     <row r="13" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="2"/>
-      <c r="B13" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="D13" s="7">
+      <c r="B13" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C13" s="5">
         <v>30</v>
       </c>
-      <c r="E13" s="11"/>
+      <c r="D13" s="5"/>
+      <c r="E13" s="9"/>
     </row>
     <row r="14" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="2"/>
-      <c r="B14" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="C14" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D14" s="7">
+      <c r="B14" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C14" s="5">
         <v>35</v>
       </c>
-      <c r="E14" s="11"/>
+      <c r="D14" s="5"/>
+      <c r="E14" s="9"/>
     </row>
     <row r="15" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="2"/>
-      <c r="B15" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="C15" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="D15" s="7">
+      <c r="B15" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C15" s="5">
         <v>15</v>
       </c>
-      <c r="E15" s="11"/>
+      <c r="D15" s="5"/>
+      <c r="E15" s="9"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup scale="92" orientation="portrait" r:id="rId1"/>
+  <pageSetup scale="94" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/work/workout.xlsx
+++ b/work/workout.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\dev\code\work\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3752BD9-4B04-4756-8084-B7B82F676621}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A5EDC71-2A70-4D5F-AA31-56A6A47AE970}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{723923E2-2CA0-49AA-84BB-AEB574CEA5B6}"/>
   </bookViews>
@@ -71,15 +71,6 @@
     <t>Dual pulley row</t>
   </si>
   <si>
-    <t>Inverted bodyweight rows (lats)</t>
-  </si>
-  <si>
-    <t>DB hammer curls (up to chest)</t>
-  </si>
-  <si>
-    <t>1-arm DB rows (knee on bench straight up)</t>
-  </si>
-  <si>
     <t>Chest press</t>
   </si>
   <si>
@@ -111,6 +102,15 @@
   </si>
   <si>
     <t>wings</t>
+  </si>
+  <si>
+    <t>Dual pulley pulldown</t>
+  </si>
+  <si>
+    <t>Triceps pushdown</t>
+  </si>
+  <si>
+    <t>Biceps curl</t>
   </si>
 </sst>
 </file>
@@ -533,7 +533,7 @@
   <dimension ref="A1:E15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -550,10 +550,10 @@
         <v>0</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="E1" s="8" t="s">
         <v>2</v>
@@ -564,7 +564,7 @@
         <v>6</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C2" s="5">
         <v>40</v>
@@ -573,7 +573,7 @@
         <v>30</v>
       </c>
       <c r="E2" s="9" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -588,7 +588,7 @@
         <v>15</v>
       </c>
       <c r="E3" s="9" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -603,7 +603,7 @@
         <v>20</v>
       </c>
       <c r="E4" s="9" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -618,7 +618,7 @@
         <v>15</v>
       </c>
       <c r="E5" s="9" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -633,7 +633,7 @@
         <v>7</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="C7" s="5">
         <v>50</v>
@@ -647,7 +647,7 @@
         <v>1</v>
       </c>
       <c r="C8" s="5">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="D8" s="5"/>
       <c r="E8" s="9"/>
@@ -655,20 +655,20 @@
     <row r="9" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="2"/>
       <c r="B9" s="3" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="C9" s="5">
         <v>270</v>
       </c>
       <c r="D9" s="5"/>
       <c r="E9" s="9" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="2"/>
       <c r="B10" s="7" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="C10" s="6">
         <v>0</v>
@@ -690,7 +690,7 @@
         <v>9</v>
       </c>
       <c r="C12" s="5">
-        <v>42.5</v>
+        <v>50</v>
       </c>
       <c r="D12" s="5"/>
       <c r="E12" s="9"/>
@@ -698,10 +698,10 @@
     <row r="13" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="2"/>
       <c r="B13" s="3" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="C13" s="5">
-        <v>30</v>
+        <v>42.5</v>
       </c>
       <c r="D13" s="5"/>
       <c r="E13" s="9"/>
@@ -709,10 +709,10 @@
     <row r="14" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="2"/>
       <c r="B14" s="3" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="C14" s="5">
-        <v>35</v>
+        <v>50</v>
       </c>
       <c r="D14" s="5"/>
       <c r="E14" s="9"/>
@@ -720,10 +720,10 @@
     <row r="15" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="2"/>
       <c r="B15" s="3" t="s">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="C15" s="5">
-        <v>15</v>
+        <v>50</v>
       </c>
       <c r="D15" s="5"/>
       <c r="E15" s="9"/>

--- a/work/workout.xlsx
+++ b/work/workout.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\dev\code\work\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A5EDC71-2A70-4D5F-AA31-56A6A47AE970}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FCC3274D-3402-4DA8-8038-65630F1623C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{723923E2-2CA0-49AA-84BB-AEB574CEA5B6}"/>
   </bookViews>
@@ -533,15 +533,15 @@
   <dimension ref="A1:E15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="6.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="49.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="28.85546875" customWidth="1"/>
     <col min="3" max="4" width="7.5703125" style="6" customWidth="1"/>
-    <col min="5" max="5" width="25.140625" style="10" customWidth="1"/>
+    <col min="5" max="5" width="39.42578125" style="10" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -597,7 +597,7 @@
         <v>4</v>
       </c>
       <c r="C4" s="5">
-        <v>90</v>
+        <v>110</v>
       </c>
       <c r="D4" s="5">
         <v>20</v>
@@ -612,7 +612,7 @@
         <v>5</v>
       </c>
       <c r="C5" s="5">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="D5" s="5">
         <v>15</v>
@@ -623,28 +623,28 @@
     </row>
     <row r="6" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="2"/>
-      <c r="B6" s="3"/>
-      <c r="C6" s="5"/>
+      <c r="B6" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C6" s="5">
+        <v>65</v>
+      </c>
       <c r="D6" s="5"/>
       <c r="E6" s="9"/>
     </row>
     <row r="7" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="C7" s="5">
-        <v>50</v>
-      </c>
+      <c r="A7" s="2"/>
+      <c r="B7" s="3"/>
+      <c r="C7" s="5"/>
       <c r="D7" s="5"/>
       <c r="E7" s="9"/>
     </row>
     <row r="8" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="2"/>
+      <c r="A8" s="2" t="s">
+        <v>7</v>
+      </c>
       <c r="B8" s="3" t="s">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="C8" s="5">
         <v>50</v>
@@ -655,53 +655,53 @@
     <row r="9" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="2"/>
       <c r="B9" s="3" t="s">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="C9" s="5">
-        <v>270</v>
+        <v>50</v>
       </c>
       <c r="D9" s="5"/>
-      <c r="E9" s="9" t="s">
-        <v>13</v>
-      </c>
+      <c r="E9" s="9"/>
     </row>
     <row r="10" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="2"/>
-      <c r="B10" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="C10" s="6">
-        <v>0</v>
-      </c>
-      <c r="E10" s="9"/>
+      <c r="B10" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C10" s="5">
+        <v>270</v>
+      </c>
+      <c r="D10" s="5"/>
+      <c r="E10" s="9" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="11" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="2"/>
-      <c r="B11" s="3"/>
-      <c r="C11" s="5"/>
-      <c r="D11" s="5"/>
+      <c r="B11" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C11" s="6">
+        <v>0</v>
+      </c>
       <c r="E11" s="9"/>
     </row>
     <row r="12" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C12" s="5">
-        <v>50</v>
-      </c>
+      <c r="A12" s="2"/>
+      <c r="B12" s="3"/>
+      <c r="C12" s="5"/>
       <c r="D12" s="5"/>
       <c r="E12" s="9"/>
     </row>
     <row r="13" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="2"/>
+      <c r="A13" s="2" t="s">
+        <v>8</v>
+      </c>
       <c r="B13" s="3" t="s">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="C13" s="5">
-        <v>42.5</v>
+        <v>50</v>
       </c>
       <c r="D13" s="5"/>
       <c r="E13" s="9"/>
@@ -709,7 +709,7 @@
     <row r="14" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="2"/>
       <c r="B14" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C14" s="5">
         <v>50</v>
@@ -720,7 +720,7 @@
     <row r="15" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="2"/>
       <c r="B15" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C15" s="5">
         <v>50</v>
@@ -730,6 +730,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup scale="94" orientation="portrait" r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/work/workout.xlsx
+++ b/work/workout.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\dev\code\work\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FCC3274D-3402-4DA8-8038-65630F1623C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B9613A2-5A6A-4CCC-8AB2-D8555DA9954E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{723923E2-2CA0-49AA-84BB-AEB574CEA5B6}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$A$1:$E$15</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$A$1:$E$19</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
   <si>
     <t>Exercise</t>
   </si>
@@ -111,6 +111,18 @@
   </si>
   <si>
     <t>Biceps curl</t>
+  </si>
+  <si>
+    <t>Extra</t>
+  </si>
+  <si>
+    <t>MTS Row</t>
+  </si>
+  <si>
+    <t>Biceps</t>
+  </si>
+  <si>
+    <t>Incline Press</t>
   </si>
 </sst>
 </file>
@@ -530,15 +542,15 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:E15"/>
+  <dimension ref="A1:E19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I7" sqref="I7"/>
+      <selection activeCell="L12" sqref="L12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="6.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="7.140625" style="1" customWidth="1"/>
     <col min="2" max="2" width="28.85546875" customWidth="1"/>
     <col min="3" max="4" width="7.5703125" style="6" customWidth="1"/>
     <col min="5" max="5" width="39.42578125" style="10" customWidth="1"/>
@@ -582,7 +594,7 @@
         <v>3</v>
       </c>
       <c r="C3" s="5">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="D3" s="5">
         <v>15</v>
@@ -612,7 +624,7 @@
         <v>5</v>
       </c>
       <c r="C5" s="5">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="D5" s="5">
         <v>15</v>
@@ -658,7 +670,7 @@
         <v>1</v>
       </c>
       <c r="C9" s="5">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="D9" s="5"/>
       <c r="E9" s="9"/>
@@ -669,7 +681,7 @@
         <v>12</v>
       </c>
       <c r="C10" s="5">
-        <v>270</v>
+        <v>210</v>
       </c>
       <c r="D10" s="5"/>
       <c r="E10" s="9" t="s">
@@ -728,8 +740,43 @@
       <c r="D15" s="5"/>
       <c r="E15" s="9"/>
     </row>
+    <row r="17" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C17" s="5">
+        <v>40</v>
+      </c>
+      <c r="D17" s="5"/>
+      <c r="E17" s="9"/>
+    </row>
+    <row r="18" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="2"/>
+      <c r="B18" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C18" s="5">
+        <v>80</v>
+      </c>
+      <c r="D18" s="5"/>
+      <c r="E18" s="9"/>
+    </row>
+    <row r="19" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="2"/>
+      <c r="B19" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C19" s="5">
+        <v>40</v>
+      </c>
+      <c r="D19" s="5"/>
+      <c r="E19" s="9"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageSetup scale="99" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/work/workout.xlsx
+++ b/work/workout.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\dev\code\work\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B9613A2-5A6A-4CCC-8AB2-D8555DA9954E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31873B3A-3FFF-48A9-93A3-961B67134AFD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{723923E2-2CA0-49AA-84BB-AEB574CEA5B6}"/>
   </bookViews>

--- a/work/workout.xlsx
+++ b/work/workout.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\dev\code\work\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31873B3A-3FFF-48A9-93A3-961B67134AFD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20B92037-2E3E-48EA-BE37-66888F115FAA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{723923E2-2CA0-49AA-84BB-AEB574CEA5B6}"/>
   </bookViews>
@@ -545,7 +545,7 @@
   <dimension ref="A1:E19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L12" sqref="L12"/>
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -639,7 +639,7 @@
         <v>23</v>
       </c>
       <c r="C6" s="5">
-        <v>65</v>
+        <v>80</v>
       </c>
       <c r="D6" s="5"/>
       <c r="E6" s="9"/>
@@ -681,7 +681,7 @@
         <v>12</v>
       </c>
       <c r="C10" s="5">
-        <v>210</v>
+        <v>270</v>
       </c>
       <c r="D10" s="5"/>
       <c r="E10" s="9" t="s">
@@ -713,7 +713,7 @@
         <v>9</v>
       </c>
       <c r="C13" s="5">
-        <v>50</v>
+        <v>80</v>
       </c>
       <c r="D13" s="5"/>
       <c r="E13" s="9"/>

--- a/work/workout.xlsx
+++ b/work/workout.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\dev\code\work\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20B92037-2E3E-48EA-BE37-66888F115FAA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C92B9DD9-E03F-42C4-9622-B2C4FAD9B5DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{723923E2-2CA0-49AA-84BB-AEB574CEA5B6}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
   <si>
     <t>Exercise</t>
   </si>
@@ -123,6 +123,9 @@
   </si>
   <si>
     <t>Incline Press</t>
+  </si>
+  <si>
+    <t>50 *</t>
   </si>
 </sst>
 </file>
@@ -545,7 +548,7 @@
   <dimension ref="A1:E19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -579,7 +582,7 @@
         <v>10</v>
       </c>
       <c r="C2" s="5">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="D2" s="5">
         <v>30</v>
@@ -594,7 +597,7 @@
         <v>3</v>
       </c>
       <c r="C3" s="5">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="D3" s="5">
         <v>15</v>
@@ -609,7 +612,7 @@
         <v>4</v>
       </c>
       <c r="C4" s="5">
-        <v>110</v>
+        <v>130</v>
       </c>
       <c r="D4" s="5">
         <v>20</v>
@@ -623,8 +626,8 @@
       <c r="B5" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C5" s="5">
-        <v>50</v>
+      <c r="C5" s="5" t="s">
+        <v>28</v>
       </c>
       <c r="D5" s="5">
         <v>15</v>
@@ -639,7 +642,7 @@
         <v>23</v>
       </c>
       <c r="C6" s="5">
-        <v>80</v>
+        <v>95</v>
       </c>
       <c r="D6" s="5"/>
       <c r="E6" s="9"/>

--- a/work/workout.xlsx
+++ b/work/workout.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\dev\code\work\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C92B9DD9-E03F-42C4-9622-B2C4FAD9B5DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0232EB04-3D74-4F16-9F98-EC71139F6907}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{723923E2-2CA0-49AA-84BB-AEB574CEA5B6}"/>
   </bookViews>
@@ -548,7 +548,7 @@
   <dimension ref="A1:E19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -612,7 +612,7 @@
         <v>4</v>
       </c>
       <c r="C4" s="5">
-        <v>130</v>
+        <v>150</v>
       </c>
       <c r="D4" s="5">
         <v>20</v>
@@ -673,7 +673,7 @@
         <v>1</v>
       </c>
       <c r="C9" s="5">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="D9" s="5"/>
       <c r="E9" s="9"/>
@@ -738,7 +738,7 @@
         <v>22</v>
       </c>
       <c r="C15" s="5">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="D15" s="5"/>
       <c r="E15" s="9"/>

--- a/work/workout.xlsx
+++ b/work/workout.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\dev\code\work\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0232EB04-3D74-4F16-9F98-EC71139F6907}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49F3CE78-3366-48C9-810E-4A1F61DC7840}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{723923E2-2CA0-49AA-84BB-AEB574CEA5B6}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
   <si>
     <t>Exercise</t>
   </si>
@@ -113,19 +113,22 @@
     <t>Biceps curl</t>
   </si>
   <si>
-    <t>Extra</t>
-  </si>
-  <si>
-    <t>MTS Row</t>
-  </si>
-  <si>
     <t>Biceps</t>
   </si>
   <si>
-    <t>Incline Press</t>
-  </si>
-  <si>
-    <t>50 *</t>
+    <t>Free</t>
+  </si>
+  <si>
+    <t>Triceps</t>
+  </si>
+  <si>
+    <t>Wrist roll</t>
+  </si>
+  <si>
+    <t>narrow grip</t>
+  </si>
+  <si>
+    <t>behind back</t>
   </si>
 </sst>
 </file>
@@ -548,7 +551,7 @@
   <dimension ref="A1:E19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+      <selection activeCell="A20" sqref="A20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -626,8 +629,8 @@
       <c r="B5" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C5" s="5" t="s">
-        <v>28</v>
+      <c r="C5" s="5">
+        <v>50</v>
       </c>
       <c r="D5" s="5">
         <v>15</v>
@@ -745,24 +748,26 @@
     </row>
     <row r="17" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C17" s="5">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="D17" s="5"/>
-      <c r="E17" s="9"/>
+      <c r="E17" s="9" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="18" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="2"/>
       <c r="B18" s="3" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C18" s="5">
-        <v>80</v>
+        <v>50</v>
       </c>
       <c r="D18" s="5"/>
       <c r="E18" s="9"/>
@@ -773,10 +778,12 @@
         <v>27</v>
       </c>
       <c r="C19" s="5">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="D19" s="5"/>
-      <c r="E19" s="9"/>
+      <c r="E19" s="9" t="s">
+        <v>29</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/work/workout.xlsx
+++ b/work/workout.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\dev\code\work\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49F3CE78-3366-48C9-810E-4A1F61DC7840}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4E26358-AB77-49D2-8F79-6960AEE407ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{723923E2-2CA0-49AA-84BB-AEB574CEA5B6}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$A$1:$E$19</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$A$1:$E$18</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
   <si>
     <t>Exercise</t>
   </si>
@@ -50,9 +50,6 @@
     <t>Notes</t>
   </si>
   <si>
-    <t>Shoulder press</t>
-  </si>
-  <si>
     <t>Tricep press</t>
   </si>
   <si>
@@ -93,9 +90,6 @@
   </si>
   <si>
     <t>laying</t>
-  </si>
-  <si>
-    <t>seated</t>
   </si>
   <si>
     <t>single db</t>
@@ -548,10 +542,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:E19"/>
+  <dimension ref="A1:E18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A20" sqref="A20"/>
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -568,10 +562,10 @@
         <v>0</v>
       </c>
       <c r="C1" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D1" s="4" t="s">
         <v>15</v>
-      </c>
-      <c r="D1" s="4" t="s">
-        <v>16</v>
       </c>
       <c r="E1" s="8" t="s">
         <v>2</v>
@@ -579,10 +573,10 @@
     </row>
     <row r="2" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C2" s="5">
         <v>50</v>
@@ -591,7 +585,7 @@
         <v>30</v>
       </c>
       <c r="E2" s="9" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -600,13 +594,13 @@
         <v>3</v>
       </c>
       <c r="C3" s="5">
-        <v>60</v>
+        <v>150</v>
       </c>
       <c r="D3" s="5">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="E3" s="9" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -615,57 +609,53 @@
         <v>4</v>
       </c>
       <c r="C4" s="5">
-        <v>150</v>
+        <v>50</v>
       </c>
       <c r="D4" s="5">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="E4" s="9" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="2"/>
       <c r="B5" s="3" t="s">
-        <v>5</v>
+        <v>21</v>
       </c>
       <c r="C5" s="5">
-        <v>50</v>
-      </c>
-      <c r="D5" s="5">
-        <v>15</v>
-      </c>
-      <c r="E5" s="9" t="s">
-        <v>20</v>
-      </c>
+        <v>95</v>
+      </c>
+      <c r="D5" s="5"/>
+      <c r="E5" s="9"/>
     </row>
     <row r="6" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="2"/>
-      <c r="B6" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="C6" s="5">
-        <v>95</v>
-      </c>
+      <c r="B6" s="3"/>
+      <c r="C6" s="5"/>
       <c r="D6" s="5"/>
       <c r="E6" s="9"/>
     </row>
     <row r="7" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="2"/>
-      <c r="B7" s="3"/>
-      <c r="C7" s="5"/>
+      <c r="A7" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C7" s="5">
+        <v>50</v>
+      </c>
       <c r="D7" s="5"/>
       <c r="E7" s="9"/>
     </row>
     <row r="8" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="2" t="s">
-        <v>7</v>
-      </c>
+      <c r="A8" s="2"/>
       <c r="B8" s="3" t="s">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="C8" s="5">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="D8" s="5"/>
       <c r="E8" s="9"/>
@@ -673,53 +663,53 @@
     <row r="9" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="2"/>
       <c r="B9" s="3" t="s">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="C9" s="5">
-        <v>70</v>
+        <v>270</v>
       </c>
       <c r="D9" s="5"/>
-      <c r="E9" s="9"/>
+      <c r="E9" s="9" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="10" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="2"/>
-      <c r="B10" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C10" s="5">
-        <v>270</v>
-      </c>
-      <c r="D10" s="5"/>
-      <c r="E10" s="9" t="s">
-        <v>13</v>
-      </c>
+      <c r="B10" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C10" s="6">
+        <v>0</v>
+      </c>
+      <c r="E10" s="9"/>
     </row>
     <row r="11" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="2"/>
-      <c r="B11" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="C11" s="6">
-        <v>0</v>
-      </c>
+      <c r="B11" s="3"/>
+      <c r="C11" s="5"/>
+      <c r="D11" s="5"/>
       <c r="E11" s="9"/>
     </row>
     <row r="12" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="2"/>
-      <c r="B12" s="3"/>
-      <c r="C12" s="5"/>
+      <c r="A12" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C12" s="5">
+        <v>80</v>
+      </c>
       <c r="D12" s="5"/>
       <c r="E12" s="9"/>
     </row>
     <row r="13" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="2" t="s">
-        <v>8</v>
-      </c>
+      <c r="A13" s="2"/>
       <c r="B13" s="3" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="C13" s="5">
-        <v>80</v>
+        <v>50</v>
       </c>
       <c r="D13" s="5"/>
       <c r="E13" s="9"/>
@@ -727,62 +717,51 @@
     <row r="14" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="2"/>
       <c r="B14" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C14" s="5">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="D14" s="5"/>
       <c r="E14" s="9"/>
     </row>
-    <row r="15" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="2"/>
-      <c r="B15" s="3" t="s">
+    <row r="16" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16" s="5">
+        <v>30</v>
+      </c>
+      <c r="D16" s="5"/>
+      <c r="E16" s="9" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="2"/>
+      <c r="B17" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="C15" s="5">
-        <v>60</v>
-      </c>
-      <c r="D15" s="5"/>
-      <c r="E15" s="9"/>
-    </row>
-    <row r="17" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="B17" s="3" t="s">
-        <v>26</v>
-      </c>
       <c r="C17" s="5">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="D17" s="5"/>
-      <c r="E17" s="9" t="s">
-        <v>28</v>
-      </c>
+      <c r="E17" s="9"/>
     </row>
     <row r="18" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="2"/>
       <c r="B18" s="3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C18" s="5">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="D18" s="5"/>
-      <c r="E18" s="9"/>
-    </row>
-    <row r="19" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="2"/>
-      <c r="B19" s="3" t="s">
+      <c r="E18" s="9" t="s">
         <v>27</v>
-      </c>
-      <c r="C19" s="5">
-        <v>20</v>
-      </c>
-      <c r="D19" s="5"/>
-      <c r="E19" s="9" t="s">
-        <v>29</v>
       </c>
     </row>
   </sheetData>
